--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KeHoachtrungHanDeXuat_Export_New.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KeHoachtrungHanDeXuat_Export_New.xlsx
@@ -759,20 +759,44 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,30 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1105,15 +1105,15 @@
     <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="33" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="49.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="1" customWidth="1"/>
@@ -2320,65 +2320,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:22" ht="35.25" customHeight="1">
       <c r="F4" s="4"/>
@@ -2388,127 +2388,127 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="63" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:22" s="6" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" spans="1:22" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="47.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="35" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="35" t="s">
         <v>54</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="28.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2685,50 +2685,50 @@
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:15" ht="18.75">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="67" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="67" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="52"/>
@@ -2748,27 +2748,27 @@
       <c r="O20" s="53"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="67" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="52"/>
@@ -2805,46 +2805,46 @@
       <c r="O23" s="53"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="67" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="67" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="52"/>
@@ -2864,43 +2864,43 @@
       <c r="O26" s="53"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="67" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K27:O27"/>
@@ -2917,21 +2917,21 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:O21"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.5607843137254902" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="44" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
